--- a/ResultsByUHF20210623/DailyProjections_citywide20210623.xlsx
+++ b/ResultsByUHF20210623/DailyProjections_citywide20210623.xlsx
@@ -458,22 +458,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>351 (220, 571)</t>
+          <t>413 (270, 649)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>110 (87, 137)</t>
+          <t>132 (107, 163)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>10 (6, 14)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -493,17 +493,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>9 (4, 14)</t>
+          <t>9 (4, 15)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -535,22 +535,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>319 (195, 539)</t>
+          <t>378 (240, 614)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>106 (84, 134)</t>
+          <t>129 (102, 160)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9 (6, 13)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -570,12 +570,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>9 (4, 14)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>292 (173, 515)</t>
+          <t>352 (214, 586)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>103 (79, 131)</t>
+          <t>124 (97, 157)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>12 (7, 17)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>9 (4, 14)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -689,22 +689,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>270 (153, 493)</t>
+          <t>329 (191, 562)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>99 (75, 128)</t>
+          <t>120 (92, 153)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>9 (5, 13)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>7 (3, 11)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -719,17 +719,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2 (2, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>250 (136, 472)</t>
+          <t>305 (173, 538)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>95 (71, 125)</t>
+          <t>115 (87, 150)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8 (5, 12)</t>
+          <t>8 (5, 13)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -791,27 +791,27 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2 (2, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>234 (119, 452)</t>
+          <t>286 (156, 520)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>91 (67, 122)</t>
+          <t>111 (82, 146)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (5, 13)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>6 (3, 10)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2 (2, 3)</t>
+          <t>2 (2, 4)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -920,22 +920,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>220 (103, 434)</t>
+          <t>269 (139, 502)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>87 (62, 118)</t>
+          <t>106 (77, 142)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>7 (5, 12)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5 (2, 9)</t>
+          <t>5 (3, 10)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>209 (93, 420)</t>
+          <t>256 (129, 489)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>82 (57, 114)</t>
+          <t>101 (72, 138)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (2, 3)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1074,22 +1074,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>201 (85, 408)</t>
+          <t>246 (117, 478)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>78 (53, 111)</t>
+          <t>96 (66, 134)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>5 (2, 9)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1109,22 +1109,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>10 (6, 16)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1151,27 +1151,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>190 (75, 399)</t>
+          <t>236 (106, 466)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>74 (48, 108)</t>
+          <t>91 (61, 131)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>6 (4, 11)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>4 (2, 9)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1191,17 +1191,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1228,27 +1228,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>182 (69, 388)</t>
+          <t>227 (96, 458)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>70 (44, 104)</t>
+          <t>87 (56, 127)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>6 (3, 10)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4 (1, 8)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1305,34 +1305,34 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>174 (63, 381)</t>
+          <t>218 (88, 450)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>66 (40, 102)</t>
+          <t>83 (51, 124)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>6 (3, 10)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4 (1, 7)</t>
+          <t>4 (1, 8)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>2 (1, 3)</t>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7 (3, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1382,34 +1382,34 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>165 (55, 371)</t>
+          <t>209 (80, 437)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>63 (37, 99)</t>
+          <t>79 (47, 122)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5 (2, 9)</t>
+          <t>5 (3, 10)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3 (1, 7)</t>
+          <t>4 (1, 8)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>2 (1, 2)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>2 (1, 3)</t>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>7 (3, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1459,22 +1459,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>157 (50, 362)</t>
+          <t>200 (72, 430)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>60 (34, 97)</t>
+          <t>76 (44, 119)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5 (2, 9)</t>
+          <t>5 (2, 10)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3 (1, 7)</t>
+          <t>4 (1, 8)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>7 (3, 12)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1536,22 +1536,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>353 (219, 574)</t>
+          <t>414 (271, 648)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>110 (87, 137)</t>
+          <t>132 (107, 163)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>10 (6, 14)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1571,17 +1571,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>9 (4, 14)</t>
+          <t>9 (4, 15)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1613,22 +1613,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>322 (197, 545)</t>
+          <t>385 (243, 619)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>106 (84, 135)</t>
+          <t>129 (103, 160)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>9 (6, 13)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>9 (4, 14)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1690,22 +1690,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>299 (175, 522)</t>
+          <t>360 (219, 596)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>103 (79, 132)</t>
+          <t>124 (97, 157)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>12 (7, 17)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>9 (4, 14)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1767,22 +1767,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>278 (158, 503)</t>
+          <t>339 (196, 578)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>99 (75, 129)</t>
+          <t>120 (92, 154)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>9 (5, 13)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>7 (3, 11)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1797,17 +1797,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2 (2, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1844,22 +1844,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>258 (141, 487)</t>
+          <t>316 (179, 556)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>95 (71, 126)</t>
+          <t>116 (88, 151)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8 (5, 12)</t>
+          <t>8 (5, 13)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1869,27 +1869,27 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2 (2, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1921,22 +1921,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>243 (126, 467)</t>
+          <t>299 (163, 539)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>92 (67, 123)</t>
+          <t>112 (83, 147)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (5, 13)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>6 (3, 10)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1946,17 +1946,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2 (2, 3)</t>
+          <t>2 (2, 4)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1998,22 +1998,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>230 (111, 452)</t>
+          <t>283 (148, 524)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>88 (63, 120)</t>
+          <t>107 (78, 144)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>8 (5, 12)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5 (2, 9)</t>
+          <t>6 (3, 10)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2075,17 +2075,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>221 (100, 446)</t>
+          <t>274 (139, 520)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>84 (58, 117)</t>
+          <t>103 (73, 141)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2105,22 +2105,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (2, 3)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2152,17 +2152,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>217 (96, 447)</t>
+          <t>270 (131, 521)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>80 (54, 114)</t>
+          <t>99 (68, 138)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2187,22 +2187,22 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>10 (7, 16)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2229,27 +2229,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>213 (88, 446)</t>
+          <t>265 (125, 525)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>76 (50, 111)</t>
+          <t>95 (63, 135)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>5 (2, 9)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2269,17 +2269,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2306,27 +2306,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>209 (82, 443)</t>
+          <t>261 (116, 523)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>73 (46, 109)</t>
+          <t>91 (58, 133)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>4 (2, 9)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2383,34 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>204 (78, 443)</t>
+          <t>256 (109, 523)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>70 (42, 108)</t>
+          <t>88 (55, 132)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>4 (1, 8)</t>
+          <t>4 (2, 9)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>2 (1, 3)</t>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>7 (3, 12)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2460,34 +2460,34 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>198 (72, 440)</t>
+          <t>250 (103, 523)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>68 (39, 107)</t>
+          <t>86 (51, 131)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4 (1, 8)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>2 (1, 3)</t>
@@ -2495,12 +2495,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>7 (3, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2537,17 +2537,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>192 (68, 438)</t>
+          <t>244 (96, 524)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>66 (37, 106)</t>
+          <t>83 (48, 131)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5 (2, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2557,14 +2557,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>2 (1, 2)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>2 (1, 3)</t>
@@ -2572,12 +2572,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>9 (5, 13)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>7 (3, 12)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2614,22 +2614,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>417 (259, 660)</t>
+          <t>469 (310, 714)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>114 (90, 143)</t>
+          <t>137 (111, 169)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8 (4, 12)</t>
+          <t>8 (5, 13)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>12 (8, 19)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2691,22 +2691,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>381 (232, 630)</t>
+          <t>436 (280, 682)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>110 (86, 141)</t>
+          <t>134 (107, 166)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>10 (7, 15)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2726,17 +2726,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>12 (8, 19)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>9 (4, 15)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2768,22 +2768,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>352 (208, 602)</t>
+          <t>405 (253, 652)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>107 (82, 138)</t>
+          <t>130 (103, 164)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2803,17 +2803,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>9 (4, 15)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2845,22 +2845,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>327 (185, 582)</t>
+          <t>378 (228, 627)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>103 (78, 135)</t>
+          <t>126 (98, 161)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2880,12 +2880,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>9 (4, 15)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2922,22 +2922,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>305 (167, 561)</t>
+          <t>356 (206, 608)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>99 (74, 132)</t>
+          <t>122 (93, 158)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>9 (4, 14)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2999,22 +2999,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>285 (149, 539)</t>
+          <t>333 (187, 588)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>96 (69, 129)</t>
+          <t>118 (89, 155)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>9 (5, 14)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>7 (3, 11)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>9 (5, 14)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3076,22 +3076,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>267 (133, 522)</t>
+          <t>313 (171, 570)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>91 (65, 126)</t>
+          <t>114 (84, 152)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>8 (5, 14)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3111,17 +3111,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>12 (7, 17)</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>9 (5, 14)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3153,22 +3153,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>252 (119, 507)</t>
+          <t>299 (155, 556)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>87 (60, 122)</t>
+          <t>109 (79, 148)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (5, 13)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>5 (2, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3178,27 +3178,27 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2 (2, 4)</t>
+          <t>2 (2, 3)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>9 (5, 14)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3230,17 +3230,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>241 (108, 493)</t>
+          <t>284 (141, 541)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>83 (55, 119)</t>
+          <t>104 (73, 145)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3255,27 +3255,27 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (2, 3)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3307,12 +3307,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>227 (99, 479)</t>
+          <t>270 (128, 528)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>79 (51, 116)</t>
+          <t>100 (68, 141)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>5 (2, 9)</t>
+          <t>5 (2, 10)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3342,17 +3342,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>2 (2, 4)</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3384,22 +3384,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>218 (90, 468)</t>
+          <t>260 (117, 516)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>75 (46, 113)</t>
+          <t>95 (62, 138)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>4 (2, 9)</t>
+          <t>5 (2, 9)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (2, 4)</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3461,22 +3461,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>208 (80, 453)</t>
+          <t>250 (108, 507)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>71 (43, 110)</t>
+          <t>91 (57, 134)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>6 (3, 12)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>4 (2, 9)</t>
+          <t>5 (2, 9)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3538,12 +3538,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>199 (71, 442)</t>
+          <t>240 (99, 494)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>68 (39, 107)</t>
+          <t>87 (53, 132)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>4 (1, 8)</t>
+          <t>4 (2, 9)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3573,17 +3573,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>10 (6, 16)</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3615,34 +3615,34 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>191 (64, 432)</t>
+          <t>230 (89, 483)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>65 (36, 105)</t>
+          <t>83 (49, 129)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>5 (2, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4 (1, 8)</t>
+          <t>4 (1, 9)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>2 (1, 3)</t>
@@ -3650,12 +3650,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>9 (6, 15)</t>
+          <t>10 (6, 16)</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3692,22 +3692,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>417 (260, 663)</t>
+          <t>474 (311, 718)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>114 (90, 143)</t>
+          <t>137 (111, 169)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>8 (4, 12)</t>
+          <t>8 (5, 13)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>12 (8, 19)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>9 (5, 16)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3769,22 +3769,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>386 (236, 634)</t>
+          <t>442 (283, 687)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>111 (86, 141)</t>
+          <t>134 (107, 166)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>10 (7, 15)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>12 (8, 19)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3846,22 +3846,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>361 (212, 615)</t>
+          <t>414 (258, 665)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>107 (82, 138)</t>
+          <t>130 (103, 164)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>9 (4, 15)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3923,17 +3923,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>336 (191, 594)</t>
+          <t>390 (235, 645)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>104 (78, 136)</t>
+          <t>127 (98, 162)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3958,12 +3958,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9 (4, 14)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4000,22 +4000,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>317 (173, 576)</t>
+          <t>368 (216, 625)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>100 (74, 133)</t>
+          <t>123 (94, 159)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>9 (6, 15)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>7 (3, 11)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9 (4, 14)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4077,22 +4077,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>299 (158, 562)</t>
+          <t>348 (196, 612)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>97 (70, 131)</t>
+          <t>119 (90, 157)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>9 (5, 14)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>7 (3, 12)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4112,12 +4112,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>9 (5, 14)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4154,22 +4154,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>282 (141, 545)</t>
+          <t>328 (181, 596)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>93 (66, 128)</t>
+          <t>116 (85, 154)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>9 (5, 14)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4189,17 +4189,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>12 (7, 17)</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>9 (5, 14)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4231,22 +4231,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>270 (131, 539)</t>
+          <t>318 (167, 589)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>89 (61, 125)</t>
+          <t>111 (80, 151)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>8 (5, 13)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2 (2, 4)</t>
+          <t>2 (2, 3)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4271,12 +4271,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>9 (5, 14)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4308,22 +4308,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>264 (121, 536)</t>
+          <t>312 (157, 590)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>85 (57, 123)</t>
+          <t>107 (75, 149)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>5 (2, 10)</t>
+          <t>6 (3, 11)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4333,27 +4333,27 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (2, 3)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4385,17 +4385,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>258 (114, 534)</t>
+          <t>306 (149, 587)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>82 (53, 120)</t>
+          <t>103 (70, 146)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>7 (4, 13)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4410,27 +4410,27 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (2, 3)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>2 (2, 4)</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4462,22 +4462,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>250 (107, 532)</t>
+          <t>300 (141, 586)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>79 (49, 118)</t>
+          <t>99 (65, 144)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>7 (3, 12)</t>
+          <t>7 (4, 13)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>5 (2, 9)</t>
+          <t>5 (2, 10)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (2, 4)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4539,22 +4539,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>243 (100, 527)</t>
+          <t>294 (132, 586)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>76 (45, 117)</t>
+          <t>96 (61, 142)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>6 (3, 12)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>4 (2, 9)</t>
+          <t>5 (2, 10)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4616,22 +4616,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>237 (92, 525)</t>
+          <t>286 (123, 584)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>73 (42, 116)</t>
+          <t>93 (57, 142)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>7 (3, 12)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4 (2, 9)</t>
+          <t>5 (2, 10)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4651,17 +4651,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>10 (6, 16)</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4693,22 +4693,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>232 (86, 522)</t>
+          <t>281 (115, 582)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>71 (39, 115)</t>
+          <t>91 (53, 141)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>6 (3, 12)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>4 (1, 9)</t>
+          <t>5 (2, 10)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>9 (6, 15)</t>
+          <t>10 (6, 16)</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>8 (4, 13)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4845,42 +4845,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>114 (66, 192)</t>
+          <t>119 (69, 197)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>85 (37, 159)</t>
+          <t>87 (37, 163)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25 (13, 43)</t>
+          <t>27 (14, 47)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>114 (66, 192)</t>
+          <t>119 (69, 197)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>85 (37, 159)</t>
+          <t>87 (37, 163)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>25 (13, 43)</t>
+          <t>27 (14, 47)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -4907,42 +4907,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>112 (65, 188)</t>
+          <t>117 (68, 194)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>84 (37, 156)</t>
+          <t>86 (37, 160)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24 (13, 42)</t>
+          <t>26 (14, 46)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>112 (65, 188)</t>
+          <t>117 (68, 194)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>84 (37, 156)</t>
+          <t>86 (37, 160)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>24 (13, 42)</t>
+          <t>26 (14, 46)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
     </row>
@@ -4969,42 +4969,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>110 (64, 184)</t>
+          <t>115 (66, 190)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>82 (37, 153)</t>
+          <t>84 (36, 158)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23 (13, 41)</t>
+          <t>25 (14, 45)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (10, 26)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>110 (64, 184)</t>
+          <t>115 (66, 190)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>82 (37, 153)</t>
+          <t>84 (36, 158)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>23 (13, 41)</t>
+          <t>25 (14, 45)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (10, 26)</t>
         </is>
       </c>
     </row>
@@ -5031,42 +5031,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>108 (62, 181)</t>
+          <t>112 (65, 187)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>80 (36, 150)</t>
+          <t>83 (36, 155)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23 (13, 40)</t>
+          <t>25 (14, 44)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>108 (62, 181)</t>
+          <t>112 (65, 187)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>80 (36, 150)</t>
+          <t>83 (36, 155)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>23 (13, 40)</t>
+          <t>25 (14, 44)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
     </row>
@@ -5093,42 +5093,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>105 (61, 177)</t>
+          <t>110 (63, 183)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>79 (35, 148)</t>
+          <t>81 (35, 152)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22 (12, 39)</t>
+          <t>24 (13, 43)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15 (8, 24)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>105 (61, 177)</t>
+          <t>110 (63, 183)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>79 (35, 148)</t>
+          <t>81 (35, 152)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>22 (12, 39)</t>
+          <t>24 (13, 43)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>15 (8, 24)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -5155,42 +5155,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>103 (59, 173)</t>
+          <t>107 (61, 180)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>77 (34, 144)</t>
+          <t>79 (33, 149)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22 (12, 38)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>103 (59, 173)</t>
+          <t>107 (61, 180)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>77 (34, 144)</t>
+          <t>79 (33, 149)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>22 (12, 38)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -5217,42 +5217,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>100 (56, 170)</t>
+          <t>104 (59, 176)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>74 (32, 141)</t>
+          <t>77 (32, 146)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22 (12, 37)</t>
+          <t>24 (13, 41)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>100 (56, 170)</t>
+          <t>104 (59, 176)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>74 (32, 141)</t>
+          <t>77 (32, 146)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22 (12, 37)</t>
+          <t>24 (13, 41)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -5279,42 +5279,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>97 (54, 165)</t>
+          <t>101 (57, 173)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>72 (31, 137)</t>
+          <t>74 (30, 143)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21 (12, 37)</t>
+          <t>23 (13, 40)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>97 (54, 165)</t>
+          <t>101 (57, 173)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>72 (31, 137)</t>
+          <t>74 (30, 143)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21 (12, 37)</t>
+          <t>23 (13, 40)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
     </row>
@@ -5341,42 +5341,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93 (52, 161)</t>
+          <t>98 (54, 168)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>69 (29, 134)</t>
+          <t>71 (29, 139)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21 (11, 36)</t>
+          <t>23 (12, 39)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13 (8, 22)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>93 (52, 161)</t>
+          <t>98 (54, 168)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>69 (29, 134)</t>
+          <t>71 (29, 139)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21 (11, 36)</t>
+          <t>23 (12, 39)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>13 (8, 22)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
     </row>
@@ -5403,42 +5403,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90 (49, 157)</t>
+          <t>94 (52, 164)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66 (27, 130)</t>
+          <t>68 (27, 135)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20 (11, 35)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>90 (49, 157)</t>
+          <t>94 (52, 164)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>66 (27, 130)</t>
+          <t>68 (27, 135)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>20 (11, 35)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
     </row>
@@ -5465,42 +5465,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86 (47, 153)</t>
+          <t>91 (49, 160)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>63 (25, 126)</t>
+          <t>65 (25, 131)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20 (11, 34)</t>
+          <t>22 (12, 38)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13 (7, 21)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>86 (47, 153)</t>
+          <t>91 (49, 160)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>63 (25, 126)</t>
+          <t>65 (25, 131)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>20 (11, 34)</t>
+          <t>22 (12, 38)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>13 (7, 21)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
     </row>
@@ -5527,42 +5527,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83 (44, 148)</t>
+          <t>87 (46, 155)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>60 (23, 122)</t>
+          <t>62 (23, 127)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19 (10, 34)</t>
+          <t>21 (11, 37)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12 (7, 21)</t>
+          <t>13 (8, 22)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>83 (44, 148)</t>
+          <t>87 (46, 155)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>60 (23, 122)</t>
+          <t>62 (23, 127)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>19 (10, 34)</t>
+          <t>21 (11, 37)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12 (7, 21)</t>
+          <t>13 (8, 22)</t>
         </is>
       </c>
     </row>
@@ -5589,42 +5589,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79 (41, 144)</t>
+          <t>83 (44, 151)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>57 (21, 118)</t>
+          <t>59 (21, 123)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19 (10, 33)</t>
+          <t>21 (11, 36)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>13 (7, 22)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>79 (41, 144)</t>
+          <t>83 (44, 151)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>57 (21, 118)</t>
+          <t>59 (21, 123)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>19 (10, 33)</t>
+          <t>21 (11, 36)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>13 (7, 22)</t>
         </is>
       </c>
     </row>
@@ -5651,42 +5651,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>76 (39, 139)</t>
+          <t>80 (41, 146)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>54 (19, 114)</t>
+          <t>56 (19, 119)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18 (10, 32)</t>
+          <t>20 (11, 36)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12 (6, 20)</t>
+          <t>13 (7, 21)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>76 (39, 139)</t>
+          <t>80 (41, 146)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>54 (19, 114)</t>
+          <t>56 (19, 119)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>18 (10, 32)</t>
+          <t>20 (11, 36)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>12 (6, 20)</t>
+          <t>13 (7, 21)</t>
         </is>
       </c>
     </row>
@@ -5713,42 +5713,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>114 (66, 191)</t>
+          <t>120 (70, 198)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>84 (36, 158)</t>
+          <t>87 (38, 163)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>25 (13, 44)</t>
+          <t>26 (14, 47)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>114 (66, 191)</t>
+          <t>120 (70, 198)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>84 (36, 158)</t>
+          <t>87 (38, 163)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>25 (13, 44)</t>
+          <t>26 (14, 47)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -5775,42 +5775,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>112 (65, 187)</t>
+          <t>118 (69, 195)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>83 (36, 156)</t>
+          <t>86 (38, 161)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24 (13, 43)</t>
+          <t>26 (14, 46)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>112 (65, 187)</t>
+          <t>118 (69, 195)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>83 (36, 156)</t>
+          <t>86 (38, 161)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24 (13, 43)</t>
+          <t>26 (14, 46)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
     </row>
@@ -5837,42 +5837,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>110 (63, 184)</t>
+          <t>115 (67, 191)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>82 (36, 153)</t>
+          <t>85 (37, 158)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24 (13, 42)</t>
+          <t>25 (14, 45)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (10, 26)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>110 (63, 184)</t>
+          <t>115 (67, 191)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>82 (36, 153)</t>
+          <t>85 (37, 158)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>24 (13, 42)</t>
+          <t>25 (14, 45)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (10, 26)</t>
         </is>
       </c>
     </row>
@@ -5899,42 +5899,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>108 (62, 180)</t>
+          <t>113 (66, 188)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>80 (35, 150)</t>
+          <t>83 (36, 155)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23 (12, 41)</t>
+          <t>25 (13, 43)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15 (9, 24)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>108 (62, 180)</t>
+          <t>113 (66, 188)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>80 (35, 150)</t>
+          <t>83 (36, 155)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>23 (12, 41)</t>
+          <t>25 (13, 43)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>15 (9, 24)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
     </row>
@@ -5961,42 +5961,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>105 (60, 177)</t>
+          <t>111 (64, 184)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>78 (34, 147)</t>
+          <t>82 (36, 153)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23 (12, 40)</t>
+          <t>24 (13, 43)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15 (8, 24)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>105 (60, 177)</t>
+          <t>111 (64, 184)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>78 (34, 147)</t>
+          <t>82 (36, 153)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>23 (12, 40)</t>
+          <t>24 (13, 43)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>15 (8, 24)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -6023,42 +6023,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>103 (59, 173)</t>
+          <t>108 (62, 181)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>76 (33, 144)</t>
+          <t>80 (34, 150)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22 (12, 39)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>103 (59, 173)</t>
+          <t>108 (62, 181)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>76 (33, 144)</t>
+          <t>80 (34, 150)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>22 (12, 39)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -6085,42 +6085,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>100 (56, 170)</t>
+          <t>105 (60, 178)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>74 (32, 141)</t>
+          <t>77 (33, 147)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22 (12, 38)</t>
+          <t>23 (13, 41)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>100 (56, 170)</t>
+          <t>105 (60, 178)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>74 (32, 141)</t>
+          <t>77 (33, 147)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>22 (12, 38)</t>
+          <t>23 (13, 41)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -6147,42 +6147,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>97 (54, 166)</t>
+          <t>102 (58, 174)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>72 (30, 138)</t>
+          <t>75 (31, 144)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21 (12, 37)</t>
+          <t>23 (12, 40)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>97 (54, 166)</t>
+          <t>102 (58, 174)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>72 (30, 138)</t>
+          <t>75 (31, 144)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21 (12, 37)</t>
+          <t>23 (12, 40)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
     </row>
@@ -6209,42 +6209,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94 (52, 162)</t>
+          <t>99 (55, 170)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>69 (28, 134)</t>
+          <t>72 (30, 140)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21 (11, 37)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13 (8, 22)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>94 (52, 162)</t>
+          <t>99 (55, 170)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>69 (28, 134)</t>
+          <t>72 (30, 140)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>21 (11, 37)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>13 (8, 22)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
     </row>
@@ -6271,42 +6271,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>90 (50, 158)</t>
+          <t>96 (53, 166)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>66 (27, 131)</t>
+          <t>70 (28, 137)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20 (11, 36)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>13 (8, 22)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>90 (50, 158)</t>
+          <t>96 (53, 166)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>66 (27, 131)</t>
+          <t>70 (28, 137)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20 (11, 36)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>13 (8, 22)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
     </row>
@@ -6333,42 +6333,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>87 (47, 154)</t>
+          <t>92 (50, 162)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>64 (25, 127)</t>
+          <t>67 (26, 133)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20 (11, 35)</t>
+          <t>22 (12, 38)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13 (7, 21)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>87 (47, 154)</t>
+          <t>92 (50, 162)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>64 (25, 127)</t>
+          <t>67 (26, 133)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>20 (11, 35)</t>
+          <t>22 (12, 38)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>13 (7, 21)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
     </row>
@@ -6395,42 +6395,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>84 (45, 150)</t>
+          <t>89 (48, 158)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>61 (23, 124)</t>
+          <t>64 (24, 129)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19 (10, 35)</t>
+          <t>21 (11, 37)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>12 (7, 21)</t>
+          <t>13 (8, 22)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>84 (45, 150)</t>
+          <t>89 (48, 158)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>61 (23, 124)</t>
+          <t>64 (24, 129)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>19 (10, 35)</t>
+          <t>21 (11, 37)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>12 (7, 21)</t>
+          <t>13 (8, 22)</t>
         </is>
       </c>
     </row>
@@ -6457,42 +6457,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>81 (42, 146)</t>
+          <t>86 (45, 154)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>58 (21, 120)</t>
+          <t>61 (23, 126)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19 (10, 34)</t>
+          <t>21 (11, 36)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>13 (8, 22)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>81 (42, 146)</t>
+          <t>86 (45, 154)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>58 (21, 120)</t>
+          <t>61 (23, 126)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>19 (10, 34)</t>
+          <t>21 (11, 36)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>13 (8, 22)</t>
         </is>
       </c>
     </row>
@@ -6519,42 +6519,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78 (40, 142)</t>
+          <t>83 (43, 151)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>56 (20, 117)</t>
+          <t>59 (21, 123)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18 (10, 33)</t>
+          <t>20 (11, 36)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>13 (7, 21)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>78 (40, 142)</t>
+          <t>83 (43, 151)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>56 (20, 117)</t>
+          <t>59 (21, 123)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>18 (10, 33)</t>
+          <t>20 (11, 36)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>13 (7, 21)</t>
         </is>
       </c>
     </row>
@@ -6581,42 +6581,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>124 (71, 209)</t>
+          <t>129 (75, 214)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>92 (40, 174)</t>
+          <t>95 (42, 177)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26 (14, 48)</t>
+          <t>28 (15, 50)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>17 (10, 28)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>124 (71, 209)</t>
+          <t>129 (75, 214)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>92 (40, 174)</t>
+          <t>95 (42, 177)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>26 (14, 48)</t>
+          <t>28 (15, 50)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>17 (10, 28)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
     </row>
@@ -6643,42 +6643,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>122 (70, 205)</t>
+          <t>127 (74, 211)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>91 (40, 171)</t>
+          <t>94 (42, 175)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26 (14, 46)</t>
+          <t>28 (15, 48)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>17 (10, 28)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>122 (70, 205)</t>
+          <t>127 (74, 211)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>91 (40, 171)</t>
+          <t>94 (42, 175)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>26 (14, 46)</t>
+          <t>28 (15, 48)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>17 (10, 28)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
     </row>
@@ -6705,42 +6705,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>120 (69, 202)</t>
+          <t>125 (73, 208)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>90 (39, 168)</t>
+          <t>93 (41, 173)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>25 (14, 45)</t>
+          <t>27 (15, 47)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>16 (10, 27)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>120 (69, 202)</t>
+          <t>125 (73, 208)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>90 (39, 168)</t>
+          <t>93 (41, 173)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>25 (14, 45)</t>
+          <t>27 (15, 47)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>16 (10, 27)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -6767,42 +6767,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>118 (67, 199)</t>
+          <t>123 (71, 205)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>88 (39, 166)</t>
+          <t>92 (41, 170)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25 (14, 44)</t>
+          <t>27 (14, 46)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>16 (9, 27)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>118 (67, 199)</t>
+          <t>123 (71, 205)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>88 (39, 166)</t>
+          <t>92 (41, 170)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>25 (14, 44)</t>
+          <t>27 (14, 46)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>16 (9, 27)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -6829,42 +6829,42 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>115 (66, 195)</t>
+          <t>121 (70, 202)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>87 (38, 163)</t>
+          <t>90 (40, 168)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24 (13, 43)</t>
+          <t>26 (14, 45)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>115 (66, 195)</t>
+          <t>121 (70, 202)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>87 (38, 163)</t>
+          <t>90 (40, 168)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24 (13, 43)</t>
+          <t>26 (14, 45)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
     </row>
@@ -6891,42 +6891,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>113 (64, 192)</t>
+          <t>119 (68, 199)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>84 (36, 160)</t>
+          <t>88 (39, 166)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24 (13, 42)</t>
+          <t>26 (14, 44)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>16 (10, 27)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>113 (64, 192)</t>
+          <t>119 (68, 199)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>84 (36, 160)</t>
+          <t>88 (39, 166)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24 (13, 42)</t>
+          <t>26 (14, 44)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>16 (10, 27)</t>
         </is>
       </c>
     </row>
@@ -6953,42 +6953,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>110 (62, 188)</t>
+          <t>116 (66, 196)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>82 (35, 157)</t>
+          <t>86 (37, 163)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23 (13, 41)</t>
+          <t>25 (14, 44)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (9, 27)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>110 (62, 188)</t>
+          <t>116 (66, 196)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>82 (35, 157)</t>
+          <t>86 (37, 163)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>23 (13, 41)</t>
+          <t>25 (14, 44)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (9, 27)</t>
         </is>
       </c>
     </row>
@@ -7015,42 +7015,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>107 (59, 184)</t>
+          <t>113 (64, 192)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>80 (33, 154)</t>
+          <t>84 (35, 160)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23 (13, 41)</t>
+          <t>25 (14, 43)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>107 (59, 184)</t>
+          <t>113 (64, 192)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>80 (33, 154)</t>
+          <t>84 (35, 160)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>23 (13, 41)</t>
+          <t>25 (14, 43)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
     </row>
@@ -7077,42 +7077,42 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>103 (57, 180)</t>
+          <t>110 (61, 188)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>77 (31, 150)</t>
+          <t>81 (33, 156)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23 (12, 40)</t>
+          <t>25 (13, 42)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15 (8, 24)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>103 (57, 180)</t>
+          <t>110 (61, 188)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>77 (31, 150)</t>
+          <t>81 (33, 156)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>23 (12, 40)</t>
+          <t>25 (13, 42)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>15 (8, 24)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
     </row>
@@ -7139,42 +7139,42 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>100 (54, 176)</t>
+          <t>106 (58, 184)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>74 (29, 146)</t>
+          <t>78 (31, 152)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22 (12, 39)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>100 (54, 176)</t>
+          <t>106 (58, 184)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>74 (29, 146)</t>
+          <t>78 (31, 152)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>22 (12, 39)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -7201,42 +7201,42 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>96 (51, 172)</t>
+          <t>103 (55, 180)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>71 (27, 142)</t>
+          <t>75 (29, 149)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22 (12, 38)</t>
+          <t>24 (13, 41)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>96 (51, 172)</t>
+          <t>103 (55, 180)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>71 (27, 142)</t>
+          <t>75 (29, 149)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>22 (12, 38)</t>
+          <t>24 (13, 41)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -7263,42 +7263,42 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>92 (48, 167)</t>
+          <t>99 (52, 176)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>68 (25, 138)</t>
+          <t>71 (27, 145)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21 (11, 38)</t>
+          <t>23 (13, 40)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (8, 25)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>92 (48, 167)</t>
+          <t>99 (52, 176)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>68 (25, 138)</t>
+          <t>71 (27, 145)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>21 (11, 38)</t>
+          <t>23 (13, 40)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (8, 25)</t>
         </is>
       </c>
     </row>
@@ -7325,42 +7325,42 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>89 (45, 163)</t>
+          <t>95 (50, 171)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>64 (23, 134)</t>
+          <t>68 (25, 140)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21 (11, 37)</t>
+          <t>23 (12, 40)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>89 (45, 163)</t>
+          <t>95 (50, 171)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>64 (23, 134)</t>
+          <t>68 (25, 140)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>21 (11, 37)</t>
+          <t>23 (12, 40)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
     </row>
@@ -7387,42 +7387,42 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>85 (43, 158)</t>
+          <t>91 (47, 167)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>61 (21, 130)</t>
+          <t>65 (23, 136)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20 (11, 36)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>85 (43, 158)</t>
+          <t>91 (47, 167)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>61 (21, 130)</t>
+          <t>65 (23, 136)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20 (11, 36)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
     </row>
@@ -7449,42 +7449,42 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>124 (72, 208)</t>
+          <t>127 (74, 212)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>92 (41, 172)</t>
+          <t>94 (41, 175)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>27 (14, 47)</t>
+          <t>28 (15, 49)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>17 (10, 28)</t>
+          <t>18 (10, 30)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>124 (72, 208)</t>
+          <t>127 (74, 212)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>92 (41, 172)</t>
+          <t>94 (41, 175)</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>27 (14, 47)</t>
+          <t>28 (15, 49)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>17 (10, 28)</t>
+          <t>18 (10, 30)</t>
         </is>
       </c>
     </row>
@@ -7511,42 +7511,42 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>122 (71, 204)</t>
+          <t>125 (73, 208)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>91 (40, 170)</t>
+          <t>93 (41, 173)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>26 (14, 46)</t>
+          <t>27 (15, 48)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>17 (10, 28)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>122 (71, 204)</t>
+          <t>125 (73, 208)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>91 (40, 170)</t>
+          <t>93 (41, 173)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>26 (14, 46)</t>
+          <t>27 (15, 48)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>17 (10, 28)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
     </row>
@@ -7573,42 +7573,42 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>120 (69, 201)</t>
+          <t>124 (72, 205)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>90 (40, 167)</t>
+          <t>92 (41, 170)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>25 (14, 45)</t>
+          <t>27 (15, 47)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>120 (69, 201)</t>
+          <t>124 (72, 205)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>90 (40, 167)</t>
+          <t>92 (41, 170)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>25 (14, 45)</t>
+          <t>27 (15, 47)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -7635,42 +7635,42 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>118 (68, 197)</t>
+          <t>122 (71, 203)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>88 (39, 164)</t>
+          <t>91 (40, 168)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>25 (14, 44)</t>
+          <t>26 (14, 46)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>16 (9, 27)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>118 (68, 197)</t>
+          <t>122 (71, 203)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>88 (39, 164)</t>
+          <t>91 (40, 168)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>25 (14, 44)</t>
+          <t>26 (14, 46)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>16 (9, 27)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -7697,42 +7697,42 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>115 (66, 194)</t>
+          <t>120 (69, 200)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>87 (38, 162)</t>
+          <t>89 (39, 166)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>25 (13, 43)</t>
+          <t>26 (14, 45)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>115 (66, 194)</t>
+          <t>120 (69, 200)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>87 (38, 162)</t>
+          <t>89 (39, 166)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>25 (13, 43)</t>
+          <t>26 (14, 45)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
     </row>
@@ -7759,42 +7759,42 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>113 (64, 191)</t>
+          <t>117 (67, 197)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>85 (37, 159)</t>
+          <t>87 (38, 164)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>24 (13, 42)</t>
+          <t>25 (14, 44)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>113 (64, 191)</t>
+          <t>117 (67, 197)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>85 (37, 159)</t>
+          <t>87 (38, 164)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>24 (13, 42)</t>
+          <t>25 (14, 44)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
     </row>
@@ -7821,42 +7821,42 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>110 (62, 187)</t>
+          <t>115 (65, 194)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>82 (36, 156)</t>
+          <t>85 (37, 161)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>24 (13, 41)</t>
+          <t>25 (14, 43)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (9, 27)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>110 (62, 187)</t>
+          <t>115 (65, 194)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>82 (36, 156)</t>
+          <t>85 (37, 161)</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>24 (13, 41)</t>
+          <t>25 (14, 43)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (9, 27)</t>
         </is>
       </c>
     </row>
@@ -7883,42 +7883,42 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>107 (60, 184)</t>
+          <t>112 (63, 190)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>80 (34, 153)</t>
+          <t>83 (35, 158)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>23 (13, 41)</t>
+          <t>25 (14, 43)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>107 (60, 184)</t>
+          <t>112 (63, 190)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>80 (34, 153)</t>
+          <t>83 (35, 158)</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>23 (13, 41)</t>
+          <t>25 (14, 43)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
     </row>
@@ -7945,42 +7945,42 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>104 (58, 180)</t>
+          <t>109 (61, 187)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>78 (32, 149)</t>
+          <t>81 (33, 155)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23 (12, 40)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>15 (9, 24)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>104 (58, 180)</t>
+          <t>109 (61, 187)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>78 (32, 149)</t>
+          <t>81 (33, 155)</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>23 (12, 40)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>15 (9, 24)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
     </row>
@@ -8007,42 +8007,42 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>101 (55, 176)</t>
+          <t>106 (58, 184)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>75 (30, 146)</t>
+          <t>78 (31, 152)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>22 (12, 39)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>15 (9, 26)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>101 (55, 176)</t>
+          <t>106 (58, 184)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>75 (30, 146)</t>
+          <t>78 (31, 152)</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>22 (12, 39)</t>
+          <t>24 (13, 42)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>15 (9, 26)</t>
         </is>
       </c>
     </row>
@@ -8069,42 +8069,42 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>98 (53, 172)</t>
+          <t>102 (56, 180)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>72 (29, 142)</t>
+          <t>75 (29, 149)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>22 (12, 38)</t>
+          <t>23 (13, 41)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>98 (53, 172)</t>
+          <t>102 (56, 180)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>72 (29, 142)</t>
+          <t>75 (29, 149)</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>22 (12, 38)</t>
+          <t>23 (13, 41)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -8131,42 +8131,42 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>94 (50, 168)</t>
+          <t>99 (53, 176)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>69 (27, 139)</t>
+          <t>72 (27, 145)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21 (11, 38)</t>
+          <t>23 (12, 40)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>94 (50, 168)</t>
+          <t>99 (53, 176)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>69 (27, 139)</t>
+          <t>72 (27, 145)</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>21 (11, 38)</t>
+          <t>23 (12, 40)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -8193,42 +8193,42 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>91 (47, 165)</t>
+          <t>96 (50, 173)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>66 (25, 136)</t>
+          <t>69 (25, 142)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21 (11, 37)</t>
+          <t>23 (12, 40)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>13 (8, 23)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>91 (47, 165)</t>
+          <t>96 (50, 173)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>66 (25, 136)</t>
+          <t>69 (25, 142)</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>21 (11, 37)</t>
+          <t>23 (12, 40)</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>13 (8, 23)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
     </row>
@@ -8255,42 +8255,42 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>87 (45, 161)</t>
+          <t>92 (47, 169)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>64 (23, 132)</t>
+          <t>66 (24, 139)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20 (11, 36)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>87 (45, 161)</t>
+          <t>92 (47, 169)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>64 (23, 132)</t>
+          <t>66 (24, 139)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>20 (11, 36)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
     </row>
